--- a/Main/output2.xlsx
+++ b/Main/output2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,274 +439,14 @@
           <t>Test No.</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Heading1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Heading2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Heading3</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>299.8126755983446</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>449.7190133975168</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>149.9063377991723</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>149.9063377991723</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>299.8126755983446</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>299.8126755983446</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>149.9063377991723</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>449.7190133975168</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>449.7190133975168</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>299.8126755983446</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>449.7190133975168</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>149.9063377991723</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>149.9063377991723</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>299.8126755983446</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>299.8126755983446</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>149.9063377991723</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>449.7190133975168</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>449.7190133975168</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>299.8126755983446</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>449.7190133975168</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>149.9063377991723</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>149.9063377991723</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>P/F</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Fail</t>
         </is>
       </c>
     </row>

--- a/Main/output2.xlsx
+++ b/Main/output2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,14 +439,1234 @@
           <t>Test No.</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>0 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0 0.5</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0.8 0.5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>0.8 0.0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>0.0 0.25</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>0.4 0.5</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>0.8 0.25</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>0.4 0.0</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>0.1 0.4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>0.3 0.4</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>0.5 0.4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>0.7 0.4</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>0.1 0.1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>0.3 0.1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>0.5 0.1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>0.7 0.1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>0.15 0.3</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>0.65 0.2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>0.4 0.25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5.413932094456451</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.755389294401643</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.232175701078155</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.572819561322573</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6838991863237003</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.4174560128248932</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3.6631647323347782</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2.3108563505588298</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>42.78105884478818</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.6715937533971653</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.867046468278101</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2.517228020666314</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2.3154197553527536</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1.0675535297891166</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1.4730278377352939</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2.0820960213253703</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1.2969362902138142</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>191.43167079285143</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.09651373473837492</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.4230036837326345</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.930558456202654</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>364.7527662574099</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.190633619590072</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.895328422239649</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4364625.685833252</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3.6961751757012147</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2.3694376041127825</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>53.072945380744216</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.6074665308952119</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.9307486209486105</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>50.59738020189203</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>23.530918597469434</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>9.717516150629695</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1.5270307827932543</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2.0537042081842696</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1.275685441447315</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1.4754824177430583</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.6756395933158009</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5.447640670890166</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.8043490273965572</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>420.6613765828557</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.065857175653998</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6393704866105794</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1.3362665722488984</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3.759821649576472</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2.266004799130932</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1.70974812912969</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.6455744893771953</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.8479742843718243</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2.4980024737255118</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>32.04784343231255</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>11.04551297215743</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.4730278377352939</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2.053882618649795</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>19.273068403613063</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1.4631871812343187</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.3595679438154447</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>47.7763967925594</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.5825179361223403</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.732930988097084</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>55.63007944050513</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.645989179035097</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2.4066358837143915</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>43.36354319041454</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2.3720515370854174</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1.7716618901060428</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.709660749607409</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>13.344962120622528</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2.567393555280911</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.330290828017232</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.9863610922105798</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.473863112607839</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2.053882618649795</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1.2612525357806401</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1.5296395135092324</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.5171212640470648</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5.433297927762654</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.927626648919444</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.654353691658538</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.068316372843706</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9752133634827858</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>35.890701470759915</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3.8635527014414097</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2.172919666958973</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>18.701023238302053</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>12.147038713063507</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.9085069508644347</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>27.405709467674306</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>59.50672666742044</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.0675535297891166</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>24.195846693588468</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>24.422307879127406</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>157922.72611621226</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>23.024045861426647</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>4.054881065188917</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5.541322150646653</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1314670.22252036</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.628600892362241</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>50.46134977682698</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8818641098294253</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1.519290175250363</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3.759821649576472</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2.220061752896796</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.8196858220077814</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.9912382205227834</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.9307486209486105</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2.5326143504160297</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2.2795772778333636</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.9670160112361988</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1.4730278377352939</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2.081993852314092</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1.3018989535295606</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1.5078751798936152</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.2602491466606324</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5.413932094456451</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.8043490273965572</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>913449.0157364056</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>45.51808950498412</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.763771360960108</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1.4174560128248932</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3.7430988318794043</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2.3108563505588298</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1.6432700681855377</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.709660749607409</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>15.525764568154901</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2.4635656253658453</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.307532213482459</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1.0354041919333128</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1.473863112607839</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2.081993852314092</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>1.258704971830376</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>1.4991286752844628</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.1570076800508305</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5.423160873708623</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.6932528666903686</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.679501516228046</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>40.361459310757084</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>48.31922045914857</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>99404822.18561275</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3.6961751757012147</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>3.7846589390751992</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>23.44716317114636</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.6074665308952119</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.9307486209486105</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>42.6073905157658</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2.255706269522561</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.948043075945511</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>12.907459167057661</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>39.64915595082898</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>26.049630571298866</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1.4631871812343187</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.5791095636937591</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>331.18822734944763</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.865938421438602</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.602873029011967</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>40.361459310757084</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.645989179035097</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.3539423524941552</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>47.312306128953935</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2.3108563505588298</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1.5411046586716797</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.5933338066083345</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.9013140336380608</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2.4980024737255118</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>36.03981030939282</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>9.225679818516518</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1.473863112607839</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>2.081993852314092</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>24.932179094694455</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.4991286752844628</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.43560134301773656</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1388.2498755394072</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.199304901620544</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.576930859806535</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>63.70418289439566</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10.276403423122536</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1.4174560128248932</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3.793760850879055</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2.2078417949138007</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.7716618901060428</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.6074665308952119</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.8872489745470558</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>33.181234777675655</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2.221397898596275</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.9805800573280574</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1.5167006315674256</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2.053882618649795</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>1.258704971830376</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1.4660249745424518</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.13246609886533367</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>P/F</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
